--- a/Report/ReportDetail.xlsx
+++ b/Report/ReportDetail.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -32,10 +32,10 @@
     <t>总用例</t>
   </si>
   <si>
-    <t>2019-12-20 15:52:11</t>
-  </si>
-  <si>
-    <t>126秒</t>
+    <t>2019-12-20 17:30:13</t>
+  </si>
+  <si>
+    <t>0秒</t>
   </si>
   <si>
     <t>通过</t>
@@ -78,32 +78,6 @@
   </si>
   <si>
     <t>截图</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>testALogin</t>
-  </si>
-  <si>
-    <t>打开</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击登录
-输入用户名
-输入密码
-点击登录
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录成功
-</t>
   </si>
 </sst>
 </file>
@@ -261,7 +235,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -327,49 +301,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1268730</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="登录成功CheckPoint_1_OK.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11049000" y="695325"/>
-          <a:ext cx="3657600" cy="1268730"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -699,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1">
@@ -721,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -803,33 +734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="110" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
+    <row r="3" spans="1:10" ht="40" customHeight="1"/>
     <row r="4" spans="1:10" ht="40" customHeight="1"/>
     <row r="5" spans="1:10" ht="40" customHeight="1"/>
     <row r="6" spans="1:10" ht="40" customHeight="1"/>
@@ -843,6 +748,5 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/ReportDetail.xlsx
+++ b/Report/ReportDetail.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -32,10 +32,10 @@
     <t>总用例</t>
   </si>
   <si>
-    <t>2019-12-20 17:30:13</t>
-  </si>
-  <si>
-    <t>0秒</t>
+    <t>2019-12-25 11:18:54</t>
+  </si>
+  <si>
+    <t>74秒</t>
   </si>
   <si>
     <t>通过</t>
@@ -78,6 +78,56 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>testALogin</t>
+  </si>
+  <si>
+    <t>打开</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击登录
+输入用户名
+输入密码
+点击登录
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录成功
+</t>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>下订单</t>
+  </si>
+  <si>
+    <t>testBPlaceOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">向下滑动
+向下滑动
+点击商品加入购物车
+进入购物车
+点击购物车
+减去商品
+点击结算
+点击继续付款
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提交订单成功
+</t>
   </si>
 </sst>
 </file>
@@ -235,7 +285,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -301,6 +351,87 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1268730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="登录成功CheckPoint_1_OK.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="695325"/>
+          <a:ext cx="2743200" cy="1268730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1268730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="下订单CheckPoint_2_OK.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="2085975"/>
+          <a:ext cx="2743200" cy="1268730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -630,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1">
@@ -652,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -734,8 +865,60 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="40" customHeight="1"/>
-    <row r="4" spans="1:10" ht="40" customHeight="1"/>
+    <row r="3" spans="1:10" ht="110" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="110" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
     <row r="5" spans="1:10" ht="40" customHeight="1"/>
     <row r="6" spans="1:10" ht="40" customHeight="1"/>
     <row r="7" spans="1:10" ht="40" customHeight="1"/>
@@ -748,5 +931,6 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/ReportDetail.xlsx
+++ b/Report/ReportDetail.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -32,10 +32,10 @@
     <t>总用例</t>
   </si>
   <si>
-    <t>2019-12-25 11:18:54</t>
-  </si>
-  <si>
-    <t>74秒</t>
+    <t>2020-02-26 09:40:05</t>
+  </si>
+  <si>
+    <t>20秒</t>
   </si>
   <si>
     <t>通过</t>
@@ -95,38 +95,13 @@
     <t>打开</t>
   </si>
   <si>
-    <t xml:space="preserve">点击登录
-输入用户名
+    <t xml:space="preserve">输入用户名
 输入密码
 点击登录
 </t>
   </si>
   <si>
     <t xml:space="preserve">登录成功
-</t>
-  </si>
-  <si>
-    <t>test002</t>
-  </si>
-  <si>
-    <t>下订单</t>
-  </si>
-  <si>
-    <t>testBPlaceOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">向下滑动
-向下滑动
-点击商品加入购物车
-进入购物车
-点击购物车
-减去商品
-点击结算
-点击继续付款
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提交订单成功
 </t>
   </si>
 </sst>
@@ -285,7 +260,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -387,44 +362,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11049000" y="695325"/>
-          <a:ext cx="2743200" cy="1268730"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1268730</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="下订单CheckPoint_2_OK.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11049000" y="2085975"/>
           <a:ext cx="2743200" cy="1268730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -761,7 +698,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1">
@@ -783,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -892,33 +829,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="110" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
+    <row r="4" spans="1:10" ht="40" customHeight="1"/>
     <row r="5" spans="1:10" ht="40" customHeight="1"/>
     <row r="6" spans="1:10" ht="40" customHeight="1"/>
     <row r="7" spans="1:10" ht="40" customHeight="1"/>

--- a/Report/ReportDetail.xlsx
+++ b/Report/ReportDetail.xlsx
@@ -32,10 +32,10 @@
     <t>总用例</t>
   </si>
   <si>
-    <t>2020-02-26 09:40:05</t>
-  </si>
-  <si>
-    <t>20秒</t>
+    <t>2020-03-02 14:56:04</t>
+  </si>
+  <si>
+    <t>31秒</t>
   </si>
   <si>
     <t>通过</t>
@@ -92,7 +92,7 @@
     <t>testALogin</t>
   </si>
   <si>
-    <t>打开</t>
+    <t>打开网页</t>
   </si>
   <si>
     <t xml:space="preserve">输入用户名
